--- a/yxf_yixue/utils/cexcel/基础表-十二地支.xlsx
+++ b/yxf_yixue/utils/cexcel/基础表-十二地支.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +189,30 @@
   </si>
   <si>
     <t>五行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昼夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,15 +572,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,8 +605,11 @@
       <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -607,8 +634,11 @@
       <c r="H2" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -633,8 +663,11 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -659,8 +692,11 @@
       <c r="H4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -685,8 +721,11 @@
       <c r="H5" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -711,8 +750,11 @@
       <c r="H6" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -737,8 +779,11 @@
       <c r="H7" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -763,8 +808,11 @@
       <c r="H8" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -789,8 +837,11 @@
       <c r="H9" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -815,8 +866,11 @@
       <c r="H10" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -841,8 +895,11 @@
       <c r="H11" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -867,8 +924,11 @@
       <c r="H12" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -892,6 +952,9 @@
       </c>
       <c r="H13" s="2">
         <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
